--- a/src/ExcelsiorClosedXml.Tests/WhitespaceTests.Disable.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/WhitespaceTests.Disable.verified.xlsx
@@ -43,9 +43,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">    john@company.com    </x:t>
-  </x:si>
-  <x:si>
-    <x:t>False</x:t>
   </x:si>
   <x:si>
     <x:t>Full Time</x:t>
@@ -457,11 +454,11 @@
       <x:c r="E2" s="1">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s">
+      <x:c r="F2" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/src/ExcelsiorClosedXml.Tests/WhitespaceTests.Disable.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/WhitespaceTests.Disable.verified.xlsx
@@ -417,7 +417,7 @@
     <x:col min="7" max="7" width="10.853482" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:7" ht="14.25" customHeight="1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -440,7 +440,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7">
+    <x:row r="2" spans="1:7" ht="14.25" customHeight="1">
       <x:c r="A2" s="1">
         <x:v>1</x:v>
       </x:c>

--- a/src/ExcelsiorClosedXml.Tests/WhitespaceTests.Disable.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/WhitespaceTests.Disable.verified.xlsx
@@ -408,13 +408,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.567768" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="25.710625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="17.424911" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.567768" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="10.853482" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="24.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.710625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.710625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.710625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="14.25" customHeight="1">
